--- a/sentiment.xlsx
+++ b/sentiment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +462,11 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>scores</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>compound</t>
         </is>
       </c>
     </row>
@@ -505,6 +510,9 @@
           <t>{'neg': 0.122, 'neu': 0.812, 'pos': 0.066, 'compound': -0.9613}</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>-0.9613</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -544,6 +552,9 @@
         <is>
           <t>{'neg': 0.045, 'neu': 0.902, 'pos': 0.053, 'compound': 0.3919}</t>
         </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3919</v>
       </c>
     </row>
     <row r="4">
@@ -613,6 +624,9 @@
         <is>
           <t>{'neg': 0.088, 'neu': 0.792, 'pos': 0.121, 'compound': 0.9964}</t>
         </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9964</v>
       </c>
     </row>
     <row r="5">
@@ -685,6 +699,9 @@
           <t>{'neg': 0.05, 'neu': 0.781, 'pos': 0.169, 'compound': 0.9992}</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>0.9992</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -723,6 +740,9 @@
         <is>
           <t>{'neg': 0.016, 'neu': 0.921, 'pos': 0.063, 'compound': 0.8126}</t>
         </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8126</v>
       </c>
     </row>
     <row r="7">
@@ -767,6 +787,9 @@
           <t>{'neg': 0.053, 'neu': 0.816, 'pos': 0.131, 'compound': 0.9778}</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>0.9778</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -805,6 +828,9 @@
         <is>
           <t>{'neg': 0.151, 'neu': 0.832, 'pos': 0.018, 'compound': -0.9886}</t>
         </is>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.9886</v>
       </c>
     </row>
     <row r="9">
@@ -852,6 +878,9 @@
           <t>{'neg': 0.057, 'neu': 0.837, 'pos': 0.106, 'compound': 0.9657}</t>
         </is>
       </c>
+      <c r="G9" t="n">
+        <v>0.9657</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -891,6 +920,9 @@
         <is>
           <t>{'neg': 0.017, 'neu': 0.893, 'pos': 0.09, 'compound': 0.9524}</t>
         </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9524</v>
       </c>
     </row>
     <row r="11">
@@ -932,6 +964,9 @@
         <is>
           <t>{'neg': 0.017, 'neu': 0.897, 'pos': 0.086, 'compound': 0.9442}</t>
         </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9442</v>
       </c>
     </row>
     <row r="12">
@@ -996,6 +1031,9 @@
           <t>{'neg': 0.024, 'neu': 0.936, 'pos': 0.039, 'compound': 0.6208}</t>
         </is>
       </c>
+      <c r="G12" t="n">
+        <v>0.6208</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1033,6 +1071,9 @@
         <is>
           <t>{'neg': 0.039, 'neu': 0.877, 'pos': 0.084, 'compound': 0.6953}</t>
         </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.6953</v>
       </c>
     </row>
     <row r="14">
@@ -1088,6 +1129,9 @@
           <t>{'neg': 0.03, 'neu': 0.814, 'pos': 0.156, 'compound': 0.9988}</t>
         </is>
       </c>
+      <c r="G14" t="n">
+        <v>0.9988</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1135,6 +1179,9 @@
         <is>
           <t>{'neg': 0.125, 'neu': 0.816, 'pos': 0.059, 'compound': -0.9839}</t>
         </is>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.9839</v>
       </c>
     </row>
     <row r="16">
@@ -1193,6 +1240,9 @@
           <t>{'neg': 0.059, 'neu': 0.891, 'pos': 0.05, 'compound': -0.8257}</t>
         </is>
       </c>
+      <c r="G16" t="n">
+        <v>-0.8257</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1229,6 +1279,9 @@
         <is>
           <t>{'neg': 0.089, 'neu': 0.844, 'pos': 0.068, 'compound': -0.5041}</t>
         </is>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.5041</v>
       </c>
     </row>
     <row r="18">
@@ -1271,6 +1324,9 @@
           <t>{'neg': 0.118, 'neu': 0.795, 'pos': 0.087, 'compound': -0.8023}</t>
         </is>
       </c>
+      <c r="G18" t="n">
+        <v>-0.8023</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1309,6 +1365,9 @@
         <is>
           <t>{'neg': 0.099, 'neu': 0.825, 'pos': 0.075, 'compound': -0.7152}</t>
         </is>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.7151999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -1350,6 +1409,9 @@
         <is>
           <t>{'neg': 0.112, 'neu': 0.792, 'pos': 0.097, 'compound': -0.4835}</t>
         </is>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.4835</v>
       </c>
     </row>
     <row r="21">
@@ -1405,6 +1467,9 @@
           <t>{'neg': 0.016, 'neu': 0.826, 'pos': 0.159, 'compound': 0.9982}</t>
         </is>
       </c>
+      <c r="G21" t="n">
+        <v>0.9982</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1448,6 +1513,9 @@
           <t>{'neg': 0.038, 'neu': 0.892, 'pos': 0.071, 'compound': 0.8481}</t>
         </is>
       </c>
+      <c r="G22" t="n">
+        <v>0.8481</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1486,6 +1554,9 @@
         <is>
           <t>{'neg': 0.052, 'neu': 0.878, 'pos': 0.07, 'compound': 0.7248}</t>
         </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0.7248</v>
       </c>
     </row>
     <row r="24">
@@ -1526,6 +1597,9 @@
         <is>
           <t>{'neg': 0.024, 'neu': 0.903, 'pos': 0.073, 'compound': 0.8996}</t>
         </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8996</v>
       </c>
     </row>
     <row r="25">
@@ -1573,6 +1647,9 @@
           <t>{'neg': 0.1, 'neu': 0.827, 'pos': 0.073, 'compound': -0.9403}</t>
         </is>
       </c>
+      <c r="G25" t="n">
+        <v>-0.9403</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1619,6 +1696,9 @@
           <t>{'neg': 0.029, 'neu': 0.793, 'pos': 0.179, 'compound': 0.9924}</t>
         </is>
       </c>
+      <c r="G26" t="n">
+        <v>0.9923999999999999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1659,6 +1739,9 @@
         <is>
           <t>{'neg': 0.034, 'neu': 0.879, 'pos': 0.087, 'compound': 0.9287}</t>
         </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9287</v>
       </c>
     </row>
     <row r="28">
@@ -1710,6 +1793,9 @@
           <t>{'neg': 0.058, 'neu': 0.841, 'pos': 0.1, 'compound': 0.9556}</t>
         </is>
       </c>
+      <c r="G28" t="n">
+        <v>0.9556</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1753,6 +1839,9 @@
           <t>{'neg': 0.092, 'neu': 0.891, 'pos': 0.017, 'compound': -0.9847}</t>
         </is>
       </c>
+      <c r="G29" t="n">
+        <v>-0.9847</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1792,6 +1881,9 @@
         <is>
           <t>{'neg': 0.047, 'neu': 0.835, 'pos': 0.118, 'compound': 0.9412}</t>
         </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0.9412</v>
       </c>
     </row>
     <row r="31">
@@ -1846,6 +1938,9 @@
           <t>{'neg': 0.136, 'neu': 0.762, 'pos': 0.102, 'compound': -0.9865}</t>
         </is>
       </c>
+      <c r="G31" t="n">
+        <v>-0.9865</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1885,6 +1980,9 @@
         <is>
           <t>{'neg': 0.055, 'neu': 0.919, 'pos': 0.025, 'compound': -0.8516}</t>
         </is>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.8516</v>
       </c>
     </row>
     <row r="33">
@@ -1937,6 +2035,9 @@
           <t>{'neg': 0.065, 'neu': 0.91, 'pos': 0.026, 'compound': -0.956}</t>
         </is>
       </c>
+      <c r="G33" t="n">
+        <v>-0.956</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1973,6 +2074,9 @@
         <is>
           <t>{'neg': 0.041, 'neu': 0.94, 'pos': 0.019, 'compound': -0.4391}</t>
         </is>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.4391</v>
       </c>
     </row>
     <row r="35">
@@ -2019,6 +2123,9 @@
           <t>{'neg': 0.077, 'neu': 0.89, 'pos': 0.033, 'compound': -0.9413}</t>
         </is>
       </c>
+      <c r="G35" t="n">
+        <v>-0.9413</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2063,6 +2170,9 @@
         <is>
           <t>{'neg': 0.003, 'neu': 0.82, 'pos': 0.177, 'compound': 0.9982}</t>
         </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9982</v>
       </c>
     </row>
     <row r="37">
@@ -2112,6 +2222,9 @@
           <t>{'neg': 0.006, 'neu': 0.842, 'pos': 0.152, 'compound': 0.9956}</t>
         </is>
       </c>
+      <c r="G37" t="n">
+        <v>0.9956</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2157,6 +2270,9 @@
         <is>
           <t>{'neg': 0.03, 'neu': 0.875, 'pos': 0.095, 'compound': 0.9901}</t>
         </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9901</v>
       </c>
     </row>
     <row r="39">
@@ -2205,6 +2321,9 @@
           <t>{'neg': 0.026, 'neu': 0.877, 'pos': 0.097, 'compound': 0.9786}</t>
         </is>
       </c>
+      <c r="G39" t="n">
+        <v>0.9786</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2244,6 +2363,9 @@
         <is>
           <t>{'neg': 0.051, 'neu': 0.912, 'pos': 0.037, 'compound': -0.3182}</t>
         </is>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.3182</v>
       </c>
     </row>
     <row r="41">
@@ -2289,6 +2411,9 @@
           <t>{'neg': 0.018, 'neu': 0.883, 'pos': 0.099, 'compound': 0.9814}</t>
         </is>
       </c>
+      <c r="G41" t="n">
+        <v>0.9814000000000001</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2329,6 +2454,9 @@
         <is>
           <t>{'neg': 0.135, 'neu': 0.846, 'pos': 0.019, 'compound': -0.9806}</t>
         </is>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.9806</v>
       </c>
     </row>
     <row r="43">
@@ -2384,6 +2512,9 @@
           <t>{'neg': 0.04, 'neu': 0.898, 'pos': 0.062, 'compound': 0.897}</t>
         </is>
       </c>
+      <c r="G43" t="n">
+        <v>0.897</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2423,6 +2554,9 @@
         <is>
           <t>{'neg': 0.052, 'neu': 0.861, 'pos': 0.087, 'compound': 0.9056}</t>
         </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9056</v>
       </c>
     </row>
     <row r="45">
@@ -2465,6 +2599,9 @@
           <t>{'neg': 0.052, 'neu': 0.862, 'pos': 0.087, 'compound': 0.796}</t>
         </is>
       </c>
+      <c r="G45" t="n">
+        <v>0.796</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2502,6 +2639,9 @@
         <is>
           <t>{'neg': 0.046, 'neu': 0.922, 'pos': 0.032, 'compound': -0.0772}</t>
         </is>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.0772</v>
       </c>
     </row>
     <row r="47">
@@ -2644,6 +2784,9 @@
           <t>{'neg': 0.054, 'neu': 0.793, 'pos': 0.154, 'compound': 1.0}</t>
         </is>
       </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2684,6 +2827,9 @@
         <is>
           <t>{'neg': 0.072, 'neu': 0.886, 'pos': 0.042, 'compound': -0.6518}</t>
         </is>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.6518</v>
       </c>
     </row>
     <row r="49">
@@ -2736,6 +2882,9 @@
           <t>{'neg': 0.031, 'neu': 0.843, 'pos': 0.126, 'compound': 0.9943}</t>
         </is>
       </c>
+      <c r="G49" t="n">
+        <v>0.9943</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2780,6 +2929,9 @@
         <is>
           <t>{'neg': 0.047, 'neu': 0.839, 'pos': 0.114, 'compound': 0.9814}</t>
         </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0.9814000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -2830,6 +2982,9 @@
           <t>{'neg': 0.03, 'neu': 0.904, 'pos': 0.066, 'compound': 0.9805}</t>
         </is>
       </c>
+      <c r="G51" t="n">
+        <v>0.9805</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2869,6 +3024,9 @@
           <t>{'neg': 0.019, 'neu': 0.893, 'pos': 0.088, 'compound': 0.9022}</t>
         </is>
       </c>
+      <c r="G52" t="n">
+        <v>0.9022</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2904,6 +3062,9 @@
         <is>
           <t>{'neg': 0.021, 'neu': 0.935, 'pos': 0.044, 'compound': 0.3818}</t>
         </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0.3818</v>
       </c>
     </row>
     <row r="54">
@@ -2957,6 +3118,9 @@
           <t>{'neg': 0.05, 'neu': 0.841, 'pos': 0.109, 'compound': 0.9903}</t>
         </is>
       </c>
+      <c r="G54" t="n">
+        <v>0.9903</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2996,6 +3160,9 @@
         <is>
           <t>{'neg': 0.015, 'neu': 0.884, 'pos': 0.101, 'compound': 0.9908}</t>
         </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0.9908</v>
       </c>
     </row>
     <row r="56">
@@ -3038,6 +3205,9 @@
           <t>{'neg': 0.015, 'neu': 0.83, 'pos': 0.154, 'compound': 0.9907}</t>
         </is>
       </c>
+      <c r="G56" t="n">
+        <v>0.9907</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3077,6 +3247,9 @@
           <t>{'neg': 0.105, 'neu': 0.816, 'pos': 0.079, 'compound': -0.876}</t>
         </is>
       </c>
+      <c r="G57" t="n">
+        <v>-0.876</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3112,6 +3285,9 @@
         <is>
           <t>{'neg': 0.013, 'neu': 0.909, 'pos': 0.078, 'compound': 0.7992}</t>
         </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0.7992</v>
       </c>
     </row>
     <row r="59">
@@ -3152,6 +3328,9 @@
         <is>
           <t>{'neg': 0.018, 'neu': 0.893, 'pos': 0.089, 'compound': 0.9431}</t>
         </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0.9431</v>
       </c>
     </row>
     <row r="60">
@@ -3194,6 +3373,9 @@
         <is>
           <t>{'neg': 0.021, 'neu': 0.899, 'pos': 0.08, 'compound': 0.8821}</t>
         </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0.8821</v>
       </c>
     </row>
     <row r="61">
@@ -3243,6 +3425,9 @@
           <t>{'neg': 0.039, 'neu': 0.86, 'pos': 0.101, 'compound': 0.9885}</t>
         </is>
       </c>
+      <c r="G61" t="n">
+        <v>0.9885</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3283,6 +3468,9 @@
           <t>{'neg': 0.045, 'neu': 0.85, 'pos': 0.105, 'compound': 0.8989}</t>
         </is>
       </c>
+      <c r="G62" t="n">
+        <v>0.8989</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3322,6 +3510,9 @@
         <is>
           <t>{'neg': 0.078, 'neu': 0.839, 'pos': 0.082, 'compound': 0.5966}</t>
         </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0.5966</v>
       </c>
     </row>
     <row r="64">
@@ -3366,6 +3557,9 @@
           <t>{'neg': 0.079, 'neu': 0.868, 'pos': 0.052, 'compound': -0.7946}</t>
         </is>
       </c>
+      <c r="G64" t="n">
+        <v>-0.7946</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3408,6 +3602,9 @@
         <is>
           <t>{'neg': 0.047, 'neu': 0.863, 'pos': 0.09, 'compound': 0.9175}</t>
         </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0.9175</v>
       </c>
     </row>
     <row r="66">
@@ -3531,6 +3728,9 @@
           <t>{'neg': 0.052, 'neu': 0.817, 'pos': 0.131, 'compound': 0.9996}</t>
         </is>
       </c>
+      <c r="G66" t="n">
+        <v>0.9996</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3582,6 +3782,9 @@
           <t>{'neg': 0.03, 'neu': 0.838, 'pos': 0.133, 'compound': 0.9955}</t>
         </is>
       </c>
+      <c r="G67" t="n">
+        <v>0.9955000000000001</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3623,6 +3826,9 @@
           <t>{'neg': 0.018, 'neu': 0.9, 'pos': 0.082, 'compound': 0.9014}</t>
         </is>
       </c>
+      <c r="G68" t="n">
+        <v>0.9014</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3660,6 +3866,9 @@
           <t>{'neg': 0.019, 'neu': 0.879, 'pos': 0.102, 'compound': 0.872}</t>
         </is>
       </c>
+      <c r="G69" t="n">
+        <v>0.872</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3696,6 +3905,9 @@
           <t>{'neg': 0.026, 'neu': 0.904, 'pos': 0.07, 'compound': 0.5417}</t>
         </is>
       </c>
+      <c r="G70" t="n">
+        <v>0.5417</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3731,6 +3943,9 @@
         <is>
           <t>{'neg': 0.071, 'neu': 0.896, 'pos': 0.033, 'compound': -0.204}</t>
         </is>
+      </c>
+      <c r="G71" t="n">
+        <v>-0.204</v>
       </c>
     </row>
     <row r="72">
@@ -3775,6 +3990,9 @@
           <t>{'neg': 0.017, 'neu': 0.864, 'pos': 0.119, 'compound': 0.9913}</t>
         </is>
       </c>
+      <c r="G72" t="n">
+        <v>0.9913</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3813,6 +4031,9 @@
         <is>
           <t>{'neg': 0.019, 'neu': 0.919, 'pos': 0.063, 'compound': 0.8832}</t>
         </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0.8832</v>
       </c>
     </row>
     <row r="74">
@@ -3862,6 +4083,9 @@
           <t>{'neg': 0.012, 'neu': 0.916, 'pos': 0.072, 'compound': 0.978}</t>
         </is>
       </c>
+      <c r="G74" t="n">
+        <v>0.978</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3903,6 +4127,9 @@
           <t>{'neg': 0.034, 'neu': 0.879, 'pos': 0.087, 'compound': 0.9081}</t>
         </is>
       </c>
+      <c r="G75" t="n">
+        <v>0.9081</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3938,6 +4165,9 @@
         <is>
           <t>{'neg': 0.0, 'neu': 0.946, 'pos': 0.054, 'compound': 0.5499}</t>
         </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0.5499000000000001</v>
       </c>
     </row>
     <row r="77">
@@ -3979,6 +4209,9 @@
         <is>
           <t>{'neg': 0.023, 'neu': 0.892, 'pos': 0.085, 'compound': 0.9509}</t>
         </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0.9509</v>
       </c>
     </row>
     <row r="78">
@@ -4022,6 +4255,9 @@
           <t>{'neg': 0.048, 'neu': 0.864, 'pos': 0.089, 'compound': 0.9169}</t>
         </is>
       </c>
+      <c r="G78" t="n">
+        <v>0.9169</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4056,6 +4292,9 @@
         <is>
           <t>{'neg': 0.0, 'neu': 0.904, 'pos': 0.096, 'compound': 0.8055}</t>
         </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0.8055</v>
       </c>
     </row>
     <row r="80">
@@ -4100,6 +4339,9 @@
           <t>{'neg': 0.039, 'neu': 0.906, 'pos': 0.055, 'compound': 0.5262}</t>
         </is>
       </c>
+      <c r="G80" t="n">
+        <v>0.5262</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4142,6 +4384,9 @@
         <is>
           <t>{'neg': 0.01, 'neu': 0.891, 'pos': 0.099, 'compound': 0.9821}</t>
         </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0.9821</v>
       </c>
     </row>
     <row r="82">
@@ -4204,6 +4449,9 @@
           <t>{'neg': 0.044, 'neu': 0.836, 'pos': 0.12, 'compound': 0.9949}</t>
         </is>
       </c>
+      <c r="G82" t="n">
+        <v>0.9949</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4248,6 +4496,9 @@
           <t>{'neg': 0.1, 'neu': 0.828, 'pos': 0.072, 'compound': -0.9706}</t>
         </is>
       </c>
+      <c r="G83" t="n">
+        <v>-0.9706</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4284,6 +4535,9 @@
         <is>
           <t>{'neg': 0.041, 'neu': 0.836, 'pos': 0.123, 'compound': 0.8934}</t>
         </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0.8934</v>
       </c>
     </row>
     <row r="85">
@@ -4329,6 +4583,9 @@
         <is>
           <t>{'neg': 0.051, 'neu': 0.82, 'pos': 0.13, 'compound': 0.9857}</t>
         </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0.9857</v>
       </c>
     </row>
     <row r="86">
@@ -4390,6 +4647,9 @@
           <t>{'neg': 0.075, 'neu': 0.829, 'pos': 0.097, 'compound': 0.9665}</t>
         </is>
       </c>
+      <c r="G86" t="n">
+        <v>0.9665</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4430,6 +4690,9 @@
         <is>
           <t>{'neg': 0.021, 'neu': 0.883, 'pos': 0.095, 'compound': 0.9278}</t>
         </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0.9278</v>
       </c>
     </row>
     <row r="88">
@@ -4504,6 +4767,9 @@
           <t>{'neg': 0.075, 'neu': 0.739, 'pos': 0.186, 'compound': 0.999}</t>
         </is>
       </c>
+      <c r="G88" t="n">
+        <v>0.999</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4549,6 +4815,9 @@
         <is>
           <t>{'neg': 0.033, 'neu': 0.91, 'pos': 0.057, 'compound': 0.6486}</t>
         </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0.6486</v>
       </c>
     </row>
     <row r="90">
@@ -4606,6 +4875,9 @@
           <t>{'neg': 0.016, 'neu': 0.84, 'pos': 0.143, 'compound': 0.9982}</t>
         </is>
       </c>
+      <c r="G90" t="n">
+        <v>0.9982</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4648,6 +4920,9 @@
         <is>
           <t>{'neg': 0.079, 'neu': 0.906, 'pos': 0.015, 'compound': -0.9501}</t>
         </is>
+      </c>
+      <c r="G91" t="n">
+        <v>-0.9500999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4699,6 +4974,9 @@
           <t>{'neg': 0.011, 'neu': 0.886, 'pos': 0.104, 'compound': 0.9881}</t>
         </is>
       </c>
+      <c r="G92" t="n">
+        <v>0.9881</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4742,6 +5020,9 @@
         <is>
           <t>{'neg': 0.018, 'neu': 0.895, 'pos': 0.087, 'compound': 0.9775}</t>
         </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0.9775</v>
       </c>
     </row>
     <row r="94">
@@ -4800,6 +5081,9 @@
           <t>{'neg': 0.018, 'neu': 0.88, 'pos': 0.101, 'compound': 0.9952}</t>
         </is>
       </c>
+      <c r="G94" t="n">
+        <v>0.9952</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4848,6 +5132,9 @@
           <t>{'neg': 0.048, 'neu': 0.816, 'pos': 0.136, 'compound': 0.9924}</t>
         </is>
       </c>
+      <c r="G95" t="n">
+        <v>0.9923999999999999</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4893,6 +5180,9 @@
           <t>{'neg': 0.076, 'neu': 0.789, 'pos': 0.135, 'compound': 0.9533}</t>
         </is>
       </c>
+      <c r="G96" t="n">
+        <v>0.9533</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4931,6 +5221,9 @@
         <is>
           <t>{'neg': 0.017, 'neu': 0.898, 'pos': 0.085, 'compound': 0.93}</t>
         </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row r="98">
@@ -4976,6 +5269,9 @@
         <is>
           <t>{'neg': 0.145, 'neu': 0.814, 'pos': 0.042, 'compound': -0.9881}</t>
         </is>
+      </c>
+      <c r="G98" t="n">
+        <v>-0.9881</v>
       </c>
     </row>
     <row r="99">
@@ -5033,6 +5329,9 @@
           <t>{'neg': 0.022, 'neu': 0.92, 'pos': 0.057, 'compound': 0.9349}</t>
         </is>
       </c>
+      <c r="G99" t="n">
+        <v>0.9349</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5070,6 +5369,9 @@
         <is>
           <t>{'neg': 0.045, 'neu': 0.955, 'pos': 0.0, 'compound': -0.6757}</t>
         </is>
+      </c>
+      <c r="G100" t="n">
+        <v>-0.6757</v>
       </c>
     </row>
     <row r="101">
@@ -5120,6 +5422,9 @@
           <t>{'neg': 0.01, 'neu': 0.882, 'pos': 0.108, 'compound': 0.9952}</t>
         </is>
       </c>
+      <c r="G101" t="n">
+        <v>0.9952</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5159,6 +5464,9 @@
           <t>{'neg': 0.102, 'neu': 0.796, 'pos': 0.102, 'compound': 0.0356}</t>
         </is>
       </c>
+      <c r="G102" t="n">
+        <v>0.0356</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5197,6 +5505,9 @@
         <is>
           <t>{'neg': 0.083, 'neu': 0.844, 'pos': 0.074, 'compound': -0.1779}</t>
         </is>
+      </c>
+      <c r="G103" t="n">
+        <v>-0.1779</v>
       </c>
     </row>
     <row r="104">
@@ -5244,6 +5555,9 @@
           <t>{'neg': 0.043, 'neu': 0.84, 'pos': 0.117, 'compound': 0.9824}</t>
         </is>
       </c>
+      <c r="G104" t="n">
+        <v>0.9824000000000001</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5281,6 +5595,9 @@
         <is>
           <t>{'neg': 0.059, 'neu': 0.853, 'pos': 0.088, 'compound': 0.5719}</t>
         </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0.5719</v>
       </c>
     </row>
     <row r="106">
@@ -5345,6 +5662,9 @@
         <is>
           <t>{'neg': 0.04, 'neu': 0.836, 'pos': 0.124, 'compound': 0.9981}</t>
         </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0.9981</v>
       </c>
     </row>
     <row r="107">
@@ -5448,6 +5768,9 @@
           <t>{'neg': 0.039, 'neu': 0.859, 'pos': 0.102, 'compound': 0.9993}</t>
         </is>
       </c>
+      <c r="G107" t="n">
+        <v>0.9993</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5486,6 +5809,9 @@
           <t>{'neg': 0.031, 'neu': 0.858, 'pos': 0.111, 'compound': 0.9578}</t>
         </is>
       </c>
+      <c r="G108" t="n">
+        <v>0.9578</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
